--- a/result/record.xlsx
+++ b/result/record.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SDBR_extend\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28CAEE1-63CB-4264-BC36-22CD9B298FEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA8B29-AF2D-4B3C-A13B-433578F4E96B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="5" xr2:uid="{413FE129-3F7E-4E97-9908-1DC9500868B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="7" xr2:uid="{413FE129-3F7E-4E97-9908-1DC9500868B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="normal" sheetId="8" r:id="rId2"/>
-    <sheet name="t0" sheetId="9" r:id="rId3"/>
-    <sheet name="t1" sheetId="10" r:id="rId4"/>
-    <sheet name="tb" sheetId="11" r:id="rId5"/>
-    <sheet name="tg" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
+    <sheet name="t0" sheetId="9" r:id="rId5"/>
+    <sheet name="t1" sheetId="10" r:id="rId6"/>
+    <sheet name="tb" sheetId="11" r:id="rId7"/>
+    <sheet name="tg" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="7" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">normal!$A$1:$L$4</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">t0!$A$1:$L$9</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'t1'!$A$1:$L$9</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">tb!$A$1:$L$9</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">tg!$A$1:$L$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">t0!$A$1:$L$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">'t1'!$A$1:$L$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">tb!$A$1:$L$9</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">tg!$A$1:$L$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="18">
   <si>
     <t>./main</t>
   </si>
@@ -113,12 +115,15 @@
   <si>
     <t>Off_goodRatio</t>
   </si>
+  <si>
+    <t>Diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,16 +139,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,13 +176,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,7 +1513,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,11 +1686,240 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2D9C72-FB36-4BF9-B11D-92C3523672E8}">
+  <dimension ref="C4:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.79272900000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.79872200000000004</v>
+      </c>
+      <c r="G5" s="8">
+        <f>(F5-E5)/E5</f>
+        <v>7.5599605918290182E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.50148199999999998</v>
+      </c>
+      <c r="J5" s="8">
+        <f>(I5-H5)/H5</f>
+        <v>2.9639999999999667E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>150</v>
+      </c>
+      <c r="D6" s="5">
+        <v>150</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.79272900000000002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.78889799999999999</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G7" si="0">(F6-E6)/E6</f>
+        <v>-4.8326729563318979E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.50477300000000003</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" ref="J6:J7" si="1">(I6-H6)/H6</f>
+        <v>9.5460000000000544E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.79272900000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.79860500000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>7.4123691702965228E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.50202500000000005</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="1"/>
+        <v>4.0500000000001091E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276102DB-0F0C-419B-A022-86229B20C937}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="A6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5">
+        <v>100</v>
+      </c>
+      <c r="C1" s="3">
+        <v>200</v>
+      </c>
+      <c r="D1" s="5">
+        <v>400</v>
+      </c>
+      <c r="E1" s="3">
+        <v>800</v>
+      </c>
+      <c r="F1" s="5">
+        <v>1600</v>
+      </c>
+      <c r="G1" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H1" s="5">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.97156200000000004</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.94401500000000005</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.89034100000000005</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.80488300000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.67784100000000003</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.50673299999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.34558100000000003</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.20219500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.64815599999999995</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.64139800000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.59401599999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.53330900000000003</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.45419799999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.33600999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.23091200000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.13440199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427FFA80-FF66-4BAE-BAC2-201F67002C98}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="L9" sqref="K2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,12 +2278,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3BF088-7EE0-4D40-B038-601ED1B03889}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1"/>
+      <selection activeCell="K2" sqref="K2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,12 +2642,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146F56C2-EBD7-480A-B97C-F63E53B22A08}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1"/>
+      <selection activeCell="K2" sqref="K2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,18 +3000,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E78297-BFDA-4E38-B6AF-AAD9CD78D9A1}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K2" sqref="K2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84992A1-DB20-4088-890F-16DFC48A826C}">
   <dimension ref="A1"/>
   <sheetViews>
